--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pearleen\Documents\GitHub\CSC380\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B468F15B-7D8C-41B3-803D-9B40AF60E9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C35D94-C5FF-4A2F-9C7B-41F9B05D9B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{87BD00FA-912E-4D14-87CF-95D09FE31B43}"/>
+    <workbookView xWindow="8052" yWindow="3384" windowWidth="19380" windowHeight="12108" activeTab="2" xr2:uid="{87BD00FA-912E-4D14-87CF-95D09FE31B43}"/>
   </bookViews>
   <sheets>
     <sheet name="Easy" sheetId="1" r:id="rId1"/>
@@ -465,7 +465,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -620,7 +620,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -690,10 +690,10 @@
         <v>9</v>
       </c>
       <c r="D4" s="2">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E4" s="2">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -774,7 +774,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -854,17 +854,17 @@
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
+      <c r="B5" s="2">
+        <v>334</v>
+      </c>
+      <c r="C5" s="2">
+        <v>76</v>
+      </c>
+      <c r="D5" s="2">
+        <v>958</v>
+      </c>
+      <c r="E5" s="2">
+        <v>635</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -888,17 +888,17 @@
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2">
-        <v>128</v>
-      </c>
-      <c r="C7" s="2">
-        <v>30</v>
-      </c>
-      <c r="D7" s="2">
-        <v>6212786</v>
-      </c>
-      <c r="E7" s="2">
-        <v>4898584</v>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -912,10 +912,10 @@
         <v>30</v>
       </c>
       <c r="D8" s="2">
-        <v>772</v>
+        <v>659</v>
       </c>
       <c r="E8" s="2">
-        <v>453</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
